--- a/Backup/Bcd Profiles and Lambda.xlsx
+++ b/Backup/Bcd Profiles and Lambda.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mean Bcd Profiles xL" sheetId="1" r:id="rId1"/>
@@ -40,8 +40,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,32 +88,21 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
+          <c:tx>
+            <c:v>Line 2.49.3</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>'Mean Bcd Profiles xL'!$A$56:$A$105</c:f>
@@ -432,16 +421,24 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Line 9.31.2</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>'Mean Bcd Profiles xL'!$D$56:$D$105</c:f>
@@ -760,62 +757,114 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="87339008"/>
-        <c:axId val="75754880"/>
+        <c:axId val="63237504"/>
+        <c:axId val="63255680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87339008"/>
+        <c:axId val="63237504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>x/L</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75754880"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="63255680"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75754880"/>
+        <c:axId val="63255680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr i="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" i="1"/>
+                  <a:t>B</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87339008"/>
-        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="63237504"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.51725483859642929"/>
+          <c:y val="9.2208734324876057E-2"/>
+          <c:w val="0.20581471085081099"/>
+          <c:h val="0.16743438320209975"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -823,32 +872,21 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
+          <c:tx>
+            <c:v>Line 2.49.3</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>'Mean Bcd Profiles x'!$B$63:$B$119</c:f>
@@ -1209,16 +1247,24 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Line 9.31.2</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>'Mean Bcd Profiles x'!$E$63:$E$108</c:f>
@@ -1513,90 +1559,139 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="50857856"/>
-        <c:axId val="50856320"/>
+        <c:axId val="64846848"/>
+        <c:axId val="64860928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50857856"/>
+        <c:axId val="64846848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>x (µm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50856320"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="64860928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50856320"/>
+        <c:axId val="64860928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr i="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" i="1"/>
+                  <a:t>B</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50857856"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="64846848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.50772618819622262"/>
+          <c:y val="8.7579104695246421E-2"/>
+          <c:w val="0.20402514885822401"/>
+          <c:h val="0.16743438320209975"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Line 2.49.3</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575">
               <a:noFill/>
@@ -1608,329 +1703,158 @@
           </c:marker>
           <c:trendline>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.1270829945862956"/>
-                  <c:y val="-0.32115777194517353"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Lambda plots xL'!$I$2:$I$49</c:f>
+              <c:f>'Lambda plots xL'!$I$7:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.03</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.05</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.09</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.15</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.19</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.21</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.23</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.25</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.27</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.31</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.33</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.35</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.37</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.39</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="25">
                   <c:v>0.51</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.56999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.59</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.61</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.73</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.77</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.81</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.83</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.87</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.89</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.91</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.93</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Lambda plots xL'!$J$2:$J$49</c:f>
+              <c:f>'Lambda plots xL'!$J$7:$J$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-4.5222559712595922E-2</c:v>
+                  <c:v>-2.6327061602107061E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.1123037954709191E-2</c:v>
+                  <c:v>-0.12200413775789376</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.7151821284262281E-6</c:v>
+                  <c:v>-0.16482041870253752</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.9986059245555387E-2</c:v>
+                  <c:v>-0.24430300457683041</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.9126497000979719E-2</c:v>
+                  <c:v>-0.20377223423758395</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.6327061602107061E-2</c:v>
+                  <c:v>-0.24812220522964004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.12200413775789376</c:v>
+                  <c:v>-0.36547022344603369</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.16482041870253752</c:v>
+                  <c:v>-0.43092007153866302</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.24430300457683041</c:v>
+                  <c:v>-0.54796107420627094</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.20377223423758395</c:v>
+                  <c:v>-0.61592822269191816</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.24812220522964004</c:v>
+                  <c:v>-0.69113368116293805</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.36547022344603369</c:v>
+                  <c:v>-0.80389314350752861</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.43092007153866302</c:v>
+                  <c:v>-0.92810571658715191</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.54796107420627094</c:v>
+                  <c:v>-1.0644244380978898</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.61592822269191816</c:v>
+                  <c:v>-1.1612320306552846</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.69113368116293805</c:v>
+                  <c:v>-1.2494106195627923</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.80389314350752861</c:v>
+                  <c:v>-1.3761037841430235</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.92810571658715191</c:v>
+                  <c:v>-1.5355608039262443</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.0644244380978898</c:v>
+                  <c:v>-1.6134484768842272</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.1612320306552846</c:v>
+                  <c:v>-1.7429899418896311</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1.2494106195627923</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-1.3761037841430235</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-1.5355608039262443</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-1.6134484768842272</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-1.7429899418896311</c:v>
-                </c:pt>
-                <c:pt idx="25">
                   <c:v>-1.7550415584896404</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-1.9508453201668337</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-2.0050179353525532</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-2.0264753768980448</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-2.0891277441866358</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-2.2077607218276549</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-2.3787351191155985</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-2.5750349331021858</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-2.4995428513099092</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-2.6228764376901297</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-2.8867062188874919</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-2.6038076868482287</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-2.7942747641648249</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-2.7416712472737368</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-2.7347967143052339</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-2.736756048954422</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-2.8313060409935025</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-2.9822721975361879</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-2.9835265015306547</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-3.2363643356442764</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-3.6858084110026126</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-3.3992384055415275</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-3.2029884397402992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Line 9.31.2</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575">
               <a:noFill/>
@@ -1942,389 +1866,277 @@
           </c:marker>
           <c:trendline>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.15701617223766595"/>
-                  <c:y val="-2.5606226305045204E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Lambda plots xL'!$I$2:$I$51</c:f>
+              <c:f>'Lambda plots xL'!$I$7:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.03</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.05</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.09</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.15</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.19</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.21</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.23</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.25</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.27</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.31</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.33</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.35</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.37</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.39</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="25">
                   <c:v>0.51</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.56999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.59</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.61</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.73</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.77</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.81</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.83</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.87</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.89</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.91</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.93</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.97</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Lambda plots xL'!$Z$2:$Z$50</c:f>
+              <c:f>'Lambda plots xL'!$Z$7:$Z$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-0.10116329385058963</c:v>
+                  <c:v>-0.27092250270394258</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.1627927973395329E-8</c:v>
+                  <c:v>-0.35657419176279082</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.9194348106993758E-2</c:v>
+                  <c:v>-0.45533441556028115</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9.7948440630510822E-2</c:v>
+                  <c:v>-0.54845552195265801</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.18368092372266054</c:v>
+                  <c:v>-0.68710980719259596</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.27092250270394258</c:v>
+                  <c:v>-0.73976448721774124</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.35657419176279082</c:v>
+                  <c:v>-0.81961739024663405</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.45533441556028115</c:v>
+                  <c:v>-0.88631359943117238</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.54845552195265801</c:v>
+                  <c:v>-0.97937353145487882</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.68710980719259596</c:v>
+                  <c:v>-1.1048690073651546</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.73976448721774124</c:v>
+                  <c:v>-1.1321292167190911</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.81961739024663405</c:v>
+                  <c:v>-1.2427316233637136</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.88631359943117238</c:v>
+                  <c:v>-1.3512174842932521</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.97937353145487882</c:v>
+                  <c:v>-1.4852261903937154</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.1048690073651546</c:v>
+                  <c:v>-1.5462953253962397</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.1321292167190911</c:v>
+                  <c:v>-1.6635239723844337</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.2427316233637136</c:v>
+                  <c:v>-1.7040445172193488</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.3512174842932521</c:v>
+                  <c:v>-1.8378370539399513</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.4852261903937154</c:v>
+                  <c:v>-1.9181282392298764</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.5462953253962397</c:v>
+                  <c:v>-2.0115162081154705</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1.6635239723844337</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-1.7040445172193488</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-1.8378370539399513</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-1.9181282392298764</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-2.0115162081154705</c:v>
-                </c:pt>
-                <c:pt idx="25">
                   <c:v>-2.0875517575270175</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-2.1845627702442472</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-2.3054402866369781</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-2.4131910927709397</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-2.507050281502627</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-2.6570997592906007</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-2.6276877760206525</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-2.725130788099364</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-2.8483009542286606</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-2.8902048746569493</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-2.9306109968329621</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-3.0283429403143103</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-3.165691850921188</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-3.2254949763010354</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-3.2042858301916528</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-3.4633425140745633</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-3.2444293059711558</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-3.6800967825425319</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-3.7515422270468632</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-3.6347050650436028</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-3.8171262193767053</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-4.2021208202554181</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-4.0985715175153175</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-4.1671627934667042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="71846912"/>
-        <c:axId val="71845376"/>
+        <c:axId val="64926848"/>
+        <c:axId val="64928768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71846912"/>
+        <c:axId val="64926848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>x/L</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71845376"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="64928768"/>
+        <c:crossesAt val="-2.5"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="64928768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ln(B/B</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="-25000"/>
+                  <a:t>max</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="64926848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="71845376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71846912"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.58500265995087952"/>
+          <c:y val="6.9060586176727903E-2"/>
+          <c:w val="0.16926440346552363"/>
+          <c:h val="0.1674343832020998"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2332,27 +2144,18 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Line 2.49.3</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575">
               <a:noFill/>
@@ -2364,186 +2167,91 @@
           </c:marker>
           <c:trendline>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.14119098026226415"/>
-                  <c:y val="-0.28908610382035577"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Lambda plots x'!$J$2:$J$52</c:f>
+              <c:f>'Lambda plots x'!$J$7:$J$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>5.7878999999999996</c:v>
+                  <c:v>63.666899999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.363700000000001</c:v>
+                  <c:v>75.242699999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.939499999999999</c:v>
+                  <c:v>86.8185</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.515300000000003</c:v>
+                  <c:v>98.394300000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.091099999999997</c:v>
+                  <c:v>109.9701</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63.666899999999998</c:v>
+                  <c:v>121.5459</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75.242699999999999</c:v>
+                  <c:v>133.1217</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>86.8185</c:v>
+                  <c:v>144.69749999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>98.394300000000001</c:v>
+                  <c:v>156.27330000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>109.9701</c:v>
+                  <c:v>167.84909999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>121.5459</c:v>
+                  <c:v>179.42490000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>133.1217</c:v>
+                  <c:v>191.00069999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>144.69749999999999</c:v>
+                  <c:v>202.57650000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>156.27330000000001</c:v>
+                  <c:v>214.1523</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>167.84909999999999</c:v>
+                  <c:v>225.72810000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>179.42490000000001</c:v>
+                  <c:v>237.3039</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>191.00069999999999</c:v>
+                  <c:v>248.87970000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>202.57650000000001</c:v>
+                  <c:v>260.45549999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>214.1523</c:v>
+                  <c:v>272.03129999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>225.72810000000001</c:v>
+                  <c:v>283.6071</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>237.3039</c:v>
+                  <c:v>295.18290000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>248.87970000000001</c:v>
+                  <c:v>306.75869999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>260.45549999999997</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>272.03129999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>283.6071</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>295.18290000000002</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>306.75869999999998</c:v>
-                </c:pt>
-                <c:pt idx="27">
                   <c:v>318.33449999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>329.91030000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>341.48610000000002</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>353.06189999999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>364.6377</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>376.21350000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>387.78930000000003</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>399.36509999999998</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>410.9409</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>422.51670000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>434.09249999999997</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>445.66829999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>457.2441</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>468.81990000000002</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>480.39569999999998</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>491.97149999999999</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>503.54730000000001</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>515.12310000000002</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>526.69889999999998</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>538.27470000000005</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>549.85050000000001</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>561.42629999999997</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>573.00210000000004</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>584.5779</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Lambda plots x'!$K$7:$K$40</c:f>
+              <c:f>'Lambda plots x'!$K$7:$K$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>-5.6775640298932964E-2</c:v>
                 </c:pt>
@@ -2612,48 +2320,17 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-1.7514213491645783</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-1.9343118500226968</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-1.9382120026642038</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-2.0516567992540971</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-2.1358378322584795</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-2.2625820308461493</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-2.2435463569355178</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-2.3124506360373389</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-2.3783323519071997</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-2.4985537049441033</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-2.5436587570985947</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-2.5224082377517134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Line 9.31.2</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575">
               <a:noFill/>
@@ -2665,166 +2342,76 @@
           </c:marker>
           <c:trendline>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Lambda plots x'!$L$2:$L$47</c:f>
+              <c:f>'Lambda plots x'!$L$6:$L$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>5.7878999999999996</c:v>
+                  <c:v>52.091099999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.363700000000001</c:v>
+                  <c:v>63.666899999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.939499999999999</c:v>
+                  <c:v>75.242699999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.515300000000003</c:v>
+                  <c:v>86.8185</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.091099999999997</c:v>
+                  <c:v>98.394300000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63.666899999999998</c:v>
+                  <c:v>109.9701</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75.242699999999999</c:v>
+                  <c:v>121.5459</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>86.8185</c:v>
+                  <c:v>133.1217</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>98.394300000000001</c:v>
+                  <c:v>144.69749999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>109.9701</c:v>
+                  <c:v>156.27330000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>121.5459</c:v>
+                  <c:v>167.84909999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>133.1217</c:v>
+                  <c:v>179.42490000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>144.69749999999999</c:v>
+                  <c:v>191.00069999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>156.27330000000001</c:v>
+                  <c:v>202.57650000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>167.84909999999999</c:v>
+                  <c:v>214.1523</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>179.42490000000001</c:v>
+                  <c:v>225.72810000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>191.00069999999999</c:v>
+                  <c:v>237.3039</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>202.57650000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>214.1523</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>225.72810000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>237.3039</c:v>
-                </c:pt>
-                <c:pt idx="21">
                   <c:v>248.87970000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>260.45549999999997</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>272.03129999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>283.6071</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>295.18290000000002</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>306.75869999999998</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>318.33449999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>329.91030000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>341.48610000000002</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>353.06189999999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>364.6377</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>376.21350000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>387.78930000000003</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>399.36509999999998</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>410.9409</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>422.51670000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>434.09249999999997</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>445.66829999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>457.2441</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>468.81990000000002</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>480.39569999999998</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>491.97149999999999</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>503.54730000000001</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>515.12310000000002</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>526.69889999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Lambda plots x'!$M$2:$M$42</c:f>
+              <c:f>'Lambda plots x'!$M$2:$M$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>-5.4275661854795702E-2</c:v>
                 </c:pt>
@@ -2890,124 +2477,137 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-1.9805500795583921</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-2.0991984882212336</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-2.1652127993609214</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-2.3630954507488546</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-2.4352053263595757</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-2.4761335256136077</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-2.7192877039014212</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-2.7049615889774263</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-2.7389027856118977</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-2.8738178240300516</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-2.9380153403545051</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-3.026038192343675</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-3.0551167149130554</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-3.2174668702123057</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-3.3122384693543889</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-3.5631517610900554</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-3.5605741029397877</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-3.6606713140555116</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-3.9226521684108686</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-3.7826246405180637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="71985024"/>
-        <c:axId val="71983488"/>
+        <c:axId val="65038976"/>
+        <c:axId val="65049344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71985024"/>
+        <c:axId val="65038976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>x (µm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71983488"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="65049344"/>
+        <c:crossesAt val="-2"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="65049344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ln(B/B</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="-25000"/>
+                  <a:t>max</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="65038976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="71983488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71985024"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.57916364336539949"/>
+          <c:y val="8.2949475065616798E-2"/>
+          <c:w val="0.16939197105463263"/>
+          <c:h val="0.1674343832020998"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3019,13 +2619,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>155864</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>91785</xdr:rowOff>
+      <xdr:rowOff>62478</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>484910</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>167985</xdr:rowOff>
+      <xdr:rowOff>138678</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3122,15 +2722,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>138546</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>74467</xdr:rowOff>
+      <xdr:colOff>262371</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>17317</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>467591</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>150667</xdr:rowOff>
+      <xdr:colOff>591416</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>93517</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3227,7 +2827,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3262,7 +2861,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3438,16 +3036,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y105"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56:E105"/>
+    <sheetView topLeftCell="B56" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L83" sqref="L83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3521,7 +3119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="A2">
         <v>0.01</v>
       </c>
@@ -3595,7 +3193,7 @@
         <v>30.731191803278701</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3">
         <v>0.03</v>
       </c>
@@ -3666,7 +3264,7 @@
         <v>40.944306557377104</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="A4">
         <v>0.05</v>
       </c>
@@ -3737,7 +3335,7 @@
         <v>41.190208196721301</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -3808,7 +3406,7 @@
         <v>37.042667213114804</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6">
         <v>0.09</v>
       </c>
@@ -3879,7 +3477,7 @@
         <v>38.304962295081999</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7">
         <v>0.11</v>
       </c>
@@ -3950,7 +3548,7 @@
         <v>35.321355737704906</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="A8">
         <v>0.13</v>
       </c>
@@ -4021,7 +3619,7 @@
         <v>25.927913114754098</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="A9">
         <v>0.15</v>
       </c>
@@ -4092,7 +3690,7 @@
         <v>27.403322950819696</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="A10">
         <v>0.17</v>
       </c>
@@ -4163,7 +3761,7 @@
         <v>25.993486885245897</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="A11">
         <v>0.19</v>
       </c>
@@ -4234,7 +3832,7 @@
         <v>21.206601639344299</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25">
       <c r="A12">
         <v>0.21</v>
       </c>
@@ -4305,7 +3903,7 @@
         <v>21.222995081967198</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13">
         <v>0.23</v>
       </c>
@@ -4376,7 +3974,7 @@
         <v>19.3541426229508</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="A14">
         <v>0.25</v>
       </c>
@@ -4447,7 +4045,7 @@
         <v>16.6984049180328</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15">
         <v>0.27</v>
       </c>
@@ -4518,7 +4116,7 @@
         <v>18.4525032786885</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="A16">
         <v>0.28999999999999998</v>
       </c>
@@ -4589,7 +4187,7 @@
         <v>11.780372131147498</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="A17">
         <v>0.31</v>
       </c>
@@ -4660,7 +4258,7 @@
         <v>14.6492245901639</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="A18">
         <v>0.33</v>
       </c>
@@ -4731,7 +4329,7 @@
         <v>13.026273770491798</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="A19">
         <v>0.35</v>
       </c>
@@ -4802,7 +4400,7 @@
         <v>13.1574213114754</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="A20">
         <v>0.37</v>
       </c>
@@ -4873,7 +4471,7 @@
         <v>8.4197163934425987</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="A21">
         <v>0.39</v>
       </c>
@@ -4944,7 +4542,7 @@
         <v>9.8787327868852017</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25">
       <c r="A22">
         <v>0.41</v>
       </c>
@@ -5015,7 +4613,7 @@
         <v>8.6984049180328</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="A23">
         <v>0.43</v>
       </c>
@@ -5086,7 +4684,7 @@
         <v>8.8623393442622991</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25">
       <c r="A24">
         <v>0.45</v>
       </c>
@@ -5157,7 +4755,7 @@
         <v>7.5016836065574006</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25">
       <c r="A25">
         <v>0.47</v>
       </c>
@@ -5228,7 +4826,7 @@
         <v>6.9934868852458996</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25">
       <c r="A26">
         <v>0.49</v>
       </c>
@@ -5299,7 +4897,7 @@
         <v>7.1738147540984007</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25">
       <c r="A27">
         <v>0.51</v>
       </c>
@@ -5370,7 +4968,7 @@
         <v>5.7147983606557</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25">
       <c r="A28">
         <v>0.53</v>
       </c>
@@ -5441,7 +5039,7 @@
         <v>6.0590606557377003</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25">
       <c r="A29">
         <v>0.55000000000000004</v>
       </c>
@@ -5512,7 +5110,7 @@
         <v>4.1410278688524995</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25">
       <c r="A30">
         <v>0.56999999999999995</v>
       </c>
@@ -5583,7 +5181,7 @@
         <v>4.5180770491802997</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="A31">
         <v>0.59</v>
       </c>
@@ -5654,7 +5252,7 @@
         <v>3.8131590163934392</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25">
       <c r="A32">
         <v>0.61</v>
       </c>
@@ -5725,7 +5323,7 @@
         <v>3.4525032786885204</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25">
       <c r="A33">
         <v>0.63</v>
       </c>
@@ -5796,7 +5394,7 @@
         <v>3.1574213114754093</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25">
       <c r="A34">
         <v>0.65</v>
       </c>
@@ -5867,7 +5465,7 @@
         <v>3.6656180327868908</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25">
       <c r="A35">
         <v>0.67</v>
       </c>
@@ -5938,7 +5536,7 @@
         <v>2.7639786885245909</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25">
       <c r="A36">
         <v>0.69</v>
       </c>
@@ -6009,7 +5607,7 @@
         <v>2.3541426229508202</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25">
       <c r="A37">
         <v>0.71</v>
       </c>
@@ -6080,7 +5678,7 @@
         <v>3.2393885245901606</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25">
       <c r="A38">
         <v>0.73</v>
       </c>
@@ -6151,7 +5749,7 @@
         <v>2.9279131147541007</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25">
       <c r="A39">
         <v>0.75</v>
       </c>
@@ -6222,7 +5820,7 @@
         <v>2.1902081967213105</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25">
       <c r="A40">
         <v>0.77</v>
       </c>
@@ -6293,7 +5891,7 @@
         <v>1.8787327868852497</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25">
       <c r="A41">
         <v>0.79</v>
       </c>
@@ -6364,7 +5962,7 @@
         <v>3.0590606557377109</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25">
       <c r="A42">
         <v>0.81</v>
       </c>
@@ -6435,7 +6033,7 @@
         <v>1.5344704918032805</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25">
       <c r="A43">
         <v>0.83</v>
       </c>
@@ -6506,7 +6104,7 @@
         <v>2.2721754098360707</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25">
       <c r="A44">
         <v>0.85</v>
       </c>
@@ -6577,7 +6175,7 @@
         <v>1.3377491803278705</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25">
       <c r="A45">
         <v>0.87</v>
       </c>
@@ -6648,7 +6246,7 @@
         <v>0.81315901639344013</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25">
       <c r="A46">
         <v>0.89</v>
       </c>
@@ -6719,7 +6317,7 @@
         <v>1.5016836065573802</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25">
       <c r="A47">
         <v>0.91</v>
       </c>
@@ -6790,7 +6388,7 @@
         <v>1.1574213114754102</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25">
       <c r="A48">
         <v>0.93</v>
       </c>
@@ -6861,7 +6459,7 @@
         <v>1.7311918032786897</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25">
       <c r="A49">
         <v>0.95</v>
       </c>
@@ -6932,7 +6530,7 @@
         <v>1.0754540983606597</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25">
       <c r="A50">
         <v>0.97</v>
       </c>
@@ -7003,7 +6601,7 @@
         <v>1.7311918032786897</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25">
       <c r="A51">
         <v>0.99</v>
       </c>
@@ -7074,7 +6672,7 @@
         <v>0.97709344262294984</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -7082,7 +6680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25">
       <c r="A56">
         <v>0.01</v>
       </c>
@@ -7098,7 +6696,7 @@
         <v>37.951758122205668</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25">
       <c r="A57">
         <v>0.03</v>
       </c>
@@ -7114,7 +6712,7 @@
         <v>41.991996572280186</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25">
       <c r="A58">
         <v>0.05</v>
       </c>
@@ -7130,7 +6728,7 @@
         <v>40.377987630402387</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25">
       <c r="A59">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -7146,7 +6744,7 @@
         <v>38.07396378539493</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25">
       <c r="A60">
         <v>0.09</v>
       </c>
@@ -7162,7 +6760,7 @@
         <v>34.945796870342797</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25">
       <c r="A61">
         <v>0.11</v>
       </c>
@@ -7178,7 +6776,7 @@
         <v>32.026273770491805</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25">
       <c r="A62">
         <v>0.13</v>
       </c>
@@ -7194,7 +6792,7 @@
         <v>29.397361698956797</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25">
       <c r="A63">
         <v>0.15</v>
       </c>
@@ -7210,7 +6808,7 @@
         <v>26.63283114754098</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25">
       <c r="A64">
         <v>0.17</v>
       </c>
@@ -7226,7 +6824,7 @@
         <v>24.264723845007452</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>0.19</v>
       </c>
@@ -7242,7 +6840,7 @@
         <v>21.123144113263773</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>0.21</v>
       </c>
@@ -7258,7 +6856,7 @@
         <v>20.039686587183304</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>0.23</v>
       </c>
@@ -7274,7 +6872,7 @@
         <v>18.501683606557378</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>0.25</v>
       </c>
@@ -7290,7 +6888,7 @@
         <v>17.307942921013417</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>0.27</v>
       </c>
@@ -7306,7 +6904,7 @@
         <v>15.769939940387491</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>0.28999999999999998</v>
       </c>
@@ -7322,7 +6920,7 @@
         <v>13.910029359165424</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>0.31</v>
       </c>
@@ -7338,7 +6936,7 @@
         <v>13.535960804769001</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>0.33</v>
       </c>
@@ -7354,7 +6952,7 @@
         <v>12.118673174366609</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>0.35</v>
       </c>
@@ -7370,7 +6968,7 @@
         <v>10.872771535022354</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>0.37</v>
       </c>
@@ -7386,7 +6984,7 @@
         <v>9.5091351713859904</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>0.39</v>
       </c>
@@ -7402,7 +7000,7 @@
         <v>8.9457968703427806</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>0.41</v>
       </c>
@@ -7418,7 +7016,7 @@
         <v>7.9562290611028486</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>0.43</v>
       </c>
@@ -7434,7 +7032,7 @@
         <v>7.640282712369614</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>0.45</v>
       </c>
@@ -7450,7 +7048,7 @@
         <v>6.6835017883755574</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>0.47</v>
       </c>
@@ -7466,7 +7064,7 @@
         <v>6.167853502235471</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>0.49</v>
       </c>
@@ -7482,7 +7080,7 @@
         <v>5.6179280178837603</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>0.51</v>
       </c>
@@ -7498,7 +7096,7 @@
         <v>5.20660163934427</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>0.53</v>
       </c>
@@ -7514,7 +7112,7 @@
         <v>4.7252305514157893</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>0.55000000000000004</v>
       </c>
@@ -7530,7 +7128,7 @@
         <v>4.1872275707898838</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>0.56999999999999995</v>
       </c>
@@ -7546,7 +7144,7 @@
         <v>3.7595077496274256</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>0.59</v>
       </c>
@@ -7562,7 +7160,7 @@
         <v>3.4226970193740645</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>0.61</v>
       </c>
@@ -7578,7 +7176,7 @@
         <v>2.9457968703427735</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>0.63</v>
       </c>
@@ -7594,7 +7192,7 @@
         <v>3.033725335320415</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>0.65</v>
       </c>
@@ -7610,7 +7208,7 @@
         <v>2.7520561847988128</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>0.67</v>
       </c>
@@ -7626,7 +7224,7 @@
         <v>2.4331292101341258</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>0.69</v>
       </c>
@@ -7642,7 +7240,7 @@
         <v>2.3332782414306994</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>0.71</v>
       </c>
@@ -7658,7 +7256,7 @@
         <v>2.2408788375558877</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>0.73</v>
       </c>
@@ -7674,7 +7272,7 @@
         <v>2.0322350223546946</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>0.75</v>
       </c>
@@ -7690,7 +7288,7 @@
         <v>1.7714302533532049</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>0.77</v>
       </c>
@@ -7706,7 +7304,7 @@
         <v>1.6685986587183315</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>0.79</v>
       </c>
@@ -7722,7 +7320,7 @@
         <v>1.7043661698956851</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>0.81</v>
       </c>
@@ -7738,7 +7336,7 @@
         <v>1.3153944858420268</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>0.83</v>
       </c>
@@ -7754,7 +7352,7 @@
         <v>1.6373020864381522</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98">
         <v>0.85</v>
       </c>
@@ -7770,7 +7368,7 @@
         <v>1.0590606557377067</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>0.87</v>
       </c>
@@ -7786,7 +7384,7 @@
         <v>0.98603532041728748</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>0.89</v>
       </c>
@@ -7802,7 +7400,7 @@
         <v>1.1082409836065574</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101">
         <v>0.91</v>
       </c>
@@ -7818,7 +7416,7 @@
         <v>0.92344217585693111</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102">
         <v>0.93</v>
       </c>
@@ -7834,7 +7432,7 @@
         <v>0.62836020864381736</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103">
         <v>0.95</v>
       </c>
@@ -7850,7 +7448,7 @@
         <v>0.69691460506706548</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104">
         <v>0.97</v>
       </c>
@@ -7866,7 +7464,7 @@
         <v>0.65071490312965818</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105">
         <v>0.99</v>
       </c>
@@ -7890,16 +7488,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z119"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62:F108"/>
+    <sheetView tabSelected="1" topLeftCell="B66" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O94" sqref="O94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -7976,7 +7574,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="A2">
         <v>6.2195</v>
       </c>
@@ -8053,7 +7651,7 @@
         <v>41.676450819999999</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="B3">
         <v>17.363700000000001</v>
       </c>
@@ -8124,7 +7722,7 @@
         <v>37.069893440000001</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="B4">
         <v>28.939499999999999</v>
       </c>
@@ -8195,7 +7793,7 @@
         <v>41.266614750000002</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="B5">
         <v>40.515300000000003</v>
       </c>
@@ -8266,7 +7864,7 @@
         <v>37.348581969999998</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="B6">
         <v>52.091099999999997</v>
       </c>
@@ -8337,7 +7935,7 @@
         <v>33.791204919999998</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="B7">
         <v>63.666899999999998</v>
       </c>
@@ -8408,7 +8006,7 @@
         <v>31.283008199999998</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="B8">
         <v>75.242699999999999</v>
       </c>
@@ -8479,7 +8077,7 @@
         <v>29.11907377</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="B9">
         <v>86.8185</v>
       </c>
@@ -8550,7 +8148,7 @@
         <v>25.87317213</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26">
       <c r="B10">
         <v>98.394300000000001</v>
       </c>
@@ -8621,7 +8219,7 @@
         <v>21.069893440000001</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="B11">
         <v>109.9701</v>
       </c>
@@ -8692,7 +8290,7 @@
         <v>20.348581969999998</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="B12">
         <v>121.5459</v>
       </c>
@@ -8763,7 +8361,7 @@
         <v>19.922352459999999</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="B13">
         <v>133.1217</v>
       </c>
@@ -8834,7 +8432,7 @@
         <v>18.004319670000001</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="B14">
         <v>144.69749999999999</v>
       </c>
@@ -8905,7 +8503,7 @@
         <v>14.610877049999999</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="B15">
         <v>156.27330000000001</v>
       </c>
@@ -8976,7 +8574,7 @@
         <v>14.856778689999999</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="B16">
         <v>167.84909999999999</v>
       </c>
@@ -9047,7 +8645,7 @@
         <v>12.840385250000001</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26">
       <c r="B17">
         <v>179.42490000000001</v>
       </c>
@@ -9118,7 +8716,7 @@
         <v>11.381368850000001</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26">
       <c r="B18">
         <v>191.00069999999999</v>
       </c>
@@ -9189,7 +8787,7 @@
         <v>10.004319669999999</v>
       </c>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26">
       <c r="B19">
         <v>202.57650000000001</v>
       </c>
@@ -9260,7 +8858,7 @@
         <v>9.528909839999999</v>
       </c>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:26">
       <c r="B20">
         <v>214.1523</v>
       </c>
@@ -9331,7 +8929,7 @@
         <v>8.6764508199999995</v>
       </c>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26">
       <c r="B21">
         <v>225.72810000000001</v>
       </c>
@@ -9402,7 +9000,7 @@
         <v>7.6436639299999989</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26">
       <c r="B22">
         <v>237.3039</v>
       </c>
@@ -9473,7 +9071,7 @@
         <v>7.1354672099999998</v>
       </c>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26">
       <c r="B23">
         <v>248.87970000000001</v>
       </c>
@@ -9544,7 +9142,7 @@
         <v>5.8895655700000002</v>
       </c>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26">
       <c r="B24">
         <v>260.45549999999997</v>
       </c>
@@ -9615,7 +9213,7 @@
         <v>5.1518606600000005</v>
       </c>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26">
       <c r="B25">
         <v>272.03129999999999</v>
       </c>
@@ -9686,7 +9284,7 @@
         <v>3.2174344260000005</v>
       </c>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:26">
       <c r="B26">
         <v>283.6071</v>
       </c>
@@ -9757,7 +9355,7 @@
         <v>4.2010409800000001</v>
       </c>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26">
       <c r="B27">
         <v>295.18290000000002</v>
       </c>
@@ -9828,7 +9426,7 @@
         <v>3.5125163930000003</v>
       </c>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26">
       <c r="B28">
         <v>306.75869999999998</v>
       </c>
@@ -9899,7 +9497,7 @@
         <v>4.1518606600000005</v>
       </c>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26">
       <c r="B29">
         <v>318.33449999999999</v>
       </c>
@@ -9970,7 +9568,7 @@
         <v>2.922352458999999</v>
       </c>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:26">
       <c r="B30">
         <v>329.91030000000001</v>
       </c>
@@ -10041,7 +9639,7 @@
         <v>2.3977622949999997</v>
       </c>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:26">
       <c r="B31">
         <v>341.48610000000002</v>
       </c>
@@ -10112,7 +9710,7 @@
         <v>2.6272704919999992</v>
       </c>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26">
       <c r="B32">
         <v>353.06189999999998</v>
       </c>
@@ -10183,7 +9781,7 @@
         <v>2.7420245899999998</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26">
       <c r="B33">
         <v>364.6377</v>
       </c>
@@ -10254,7 +9852,7 @@
         <v>2.2010409840000005</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26">
       <c r="B34">
         <v>376.21350000000001</v>
       </c>
@@ -10325,7 +9923,7 @@
         <v>2.4305491799999999</v>
       </c>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:26">
       <c r="B35">
         <v>387.78930000000003</v>
       </c>
@@ -10396,7 +9994,7 @@
         <v>3.1518606560000002</v>
       </c>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26">
       <c r="B36">
         <v>399.36509999999998</v>
       </c>
@@ -10467,7 +10065,7 @@
         <v>1.7584180329999999</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26">
       <c r="B37">
         <v>410.9409</v>
       </c>
@@ -10538,7 +10136,7 @@
         <v>0.85677868899999954</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:26">
       <c r="B38">
         <v>422.51670000000001</v>
       </c>
@@ -10609,7 +10207,7 @@
         <v>1.11907377</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:26">
       <c r="B39">
         <v>434.09249999999997</v>
       </c>
@@ -10680,7 +10278,7 @@
         <v>1.9879262299999994</v>
       </c>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26">
       <c r="B40">
         <v>445.66829999999999</v>
       </c>
@@ -10751,7 +10349,7 @@
         <v>1.3485819669999994</v>
       </c>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:26">
       <c r="B41">
         <v>457.2441</v>
       </c>
@@ -10822,7 +10420,7 @@
         <v>1.8403852459999994</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:26">
       <c r="B42">
         <v>468.81990000000002</v>
       </c>
@@ -10890,7 +10488,7 @@
         <v>1.938745902</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:26">
       <c r="B43">
         <v>480.39569999999998</v>
       </c>
@@ -10958,7 +10556,7 @@
         <v>2.8075983610000002</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:26">
       <c r="B44">
         <v>491.97149999999999</v>
       </c>
@@ -11017,7 +10615,7 @@
         <v>1.3649754099999996</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:26">
       <c r="B45">
         <v>503.54730000000001</v>
       </c>
@@ -11067,7 +10665,7 @@
         <v>0.93874590199999997</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:26">
       <c r="B46">
         <v>515.12310000000002</v>
       </c>
@@ -11114,7 +10712,7 @@
         <v>0.66005737699999933</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:26">
       <c r="B47">
         <v>526.69889999999998</v>
       </c>
@@ -11155,7 +10753,7 @@
         <v>-1.7825655740000004</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:26">
       <c r="B48">
         <v>538.27470000000005</v>
       </c>
@@ -11190,7 +10788,7 @@
         <v>1.8952540980000006</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12">
       <c r="B49">
         <v>549.85050000000001</v>
       </c>
@@ -11225,7 +10823,7 @@
         <v>2.0919754099999999</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12">
       <c r="B50">
         <v>561.42629999999997</v>
       </c>
@@ -11260,7 +10858,7 @@
         <v>1.7805</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12">
       <c r="B51">
         <v>573.00210000000004</v>
       </c>
@@ -11295,7 +10893,7 @@
         <v>1.7313196719999997</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12">
       <c r="B52">
         <v>584.5779</v>
       </c>
@@ -11327,7 +10925,7 @@
         <v>2.0427950819999996</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12">
       <c r="B53">
         <v>596.15369999999996</v>
       </c>
@@ -11359,7 +10957,7 @@
         <v>1.6493524590000002</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12">
       <c r="B54">
         <v>607.72950000000003</v>
       </c>
@@ -11382,7 +10980,7 @@
         <v>1.0591885249999997</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12">
       <c r="B55">
         <v>619.30529999999999</v>
       </c>
@@ -11402,7 +11000,7 @@
         <v>2.2723032790000008</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12">
       <c r="B56">
         <v>630.88109999999995</v>
       </c>
@@ -11416,7 +11014,7 @@
         <v>1.3870573769999996</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12">
       <c r="B57">
         <v>642.45690000000002</v>
       </c>
@@ -11427,7 +11025,7 @@
         <v>0.74771311499999982</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12">
       <c r="B58">
         <v>654.03269999999998</v>
       </c>
@@ -11438,7 +11036,7 @@
         <v>-0.49818852499999977</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12">
       <c r="B62" t="s">
         <v>0</v>
       </c>
@@ -11446,7 +11044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12">
       <c r="B63">
         <v>5.7878999999999996</v>
       </c>
@@ -11462,7 +11060,7 @@
         <v>38.584051416363643</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12">
       <c r="B64">
         <v>17.363700000000001</v>
       </c>
@@ -11478,7 +11076,7 @@
         <v>39.652605811818177</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6">
       <c r="B65">
         <v>28.939499999999999</v>
       </c>
@@ -11494,7 +11092,7 @@
         <v>40.736063338181822</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6">
       <c r="B66">
         <v>40.515300000000003</v>
       </c>
@@ -11510,7 +11108,7 @@
         <v>38.429058867272722</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6">
       <c r="B67">
         <v>52.091099999999997</v>
       </c>
@@ -11526,7 +11124,7 @@
         <v>34.49761326363636</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6">
       <c r="B68">
         <v>63.666899999999998</v>
       </c>
@@ -11542,7 +11140,7 @@
         <v>32.257672876363635</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6">
       <c r="B69">
         <v>75.242699999999999</v>
       </c>
@@ -11558,7 +11156,7 @@
         <v>28.749476154545452</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6">
       <c r="B70">
         <v>86.8185</v>
       </c>
@@ -11574,7 +11172,7 @@
         <v>24.932784649090909</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6">
       <c r="B71">
         <v>98.394300000000001</v>
       </c>
@@ -11590,7 +11188,7 @@
         <v>22.616838301818181</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6">
       <c r="B72">
         <v>109.9701</v>
       </c>
@@ -11606,7 +11204,7 @@
         <v>20.809088673636367</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6">
       <c r="B73">
         <v>121.5459</v>
       </c>
@@ -11622,7 +11220,7 @@
         <v>18.840385246363635</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6">
       <c r="B74">
         <v>133.1217</v>
       </c>
@@ -11638,7 +11236,7 @@
         <v>16.950668405454543</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:6">
       <c r="B75">
         <v>144.69749999999999</v>
       </c>
@@ -11654,7 +11252,7 @@
         <v>14.604915796363635</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:6">
       <c r="B76">
         <v>156.27330000000001</v>
       </c>
@@ -11670,7 +11268,7 @@
         <v>13.759908345454544</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6">
       <c r="B77">
         <v>167.84909999999999</v>
       </c>
@@ -11686,7 +11284,7 @@
         <v>12.281517885454546</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6">
       <c r="B78">
         <v>179.42490000000001</v>
       </c>
@@ -11702,7 +11300,7 @@
         <v>10.958119969090909</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6">
       <c r="B79">
         <v>191.00069999999999</v>
       </c>
@@ -11718,7 +11316,7 @@
         <v>9.5974642327272726</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6">
       <c r="B80">
         <v>202.57650000000001</v>
       </c>
@@ -11734,7 +11332,7 @@
         <v>8.6839023854545445</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6">
       <c r="B81">
         <v>214.1523</v>
       </c>
@@ -11750,7 +11348,7 @@
         <v>7.9119202690909081</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6">
       <c r="B82">
         <v>225.72810000000001</v>
       </c>
@@ -11766,7 +11364,7 @@
         <v>7.1071512664545455</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6">
       <c r="B83">
         <v>237.3039</v>
       </c>
@@ -11782,7 +11380,7 @@
         <v>6.3992526084545451</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:6">
       <c r="B84">
         <v>248.87970000000001</v>
       </c>
@@ -11798,7 +11396,7 @@
         <v>5.621309240090909</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6">
       <c r="B85">
         <v>260.45549999999997</v>
       </c>
@@ -11814,7 +11412,7 @@
         <v>4.9923971689090907</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:6">
       <c r="B86">
         <v>272.03129999999999</v>
       </c>
@@ -11830,7 +11428,7 @@
         <v>4.6734701934545457</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:6">
       <c r="B87">
         <v>283.6071</v>
       </c>
@@ -11846,7 +11444,7 @@
         <v>3.8344239941818175</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:6">
       <c r="B88">
         <v>295.18290000000002</v>
       </c>
@@ -11862,7 +11460,7 @@
         <v>3.5676579740909089</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:6">
       <c r="B89">
         <v>306.75869999999998</v>
       </c>
@@ -11878,7 +11476,7 @@
         <v>3.4245879283636356</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:6">
       <c r="B90">
         <v>318.33449999999999</v>
       </c>
@@ -11894,7 +11492,7 @@
         <v>2.6853926974545455</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:6">
       <c r="B91">
         <v>329.91030000000001</v>
       </c>
@@ -11910,7 +11508,7 @@
         <v>2.7241408342727267</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:6">
       <c r="B92">
         <v>341.48610000000002</v>
       </c>
@@ -11926,7 +11524,7 @@
         <v>2.6332317433636363</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:6">
       <c r="B93">
         <v>353.06189999999998</v>
       </c>
@@ -11942,7 +11540,7 @@
         <v>2.300891952454545</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:6">
       <c r="B94">
         <v>364.6377</v>
       </c>
@@ -11958,7 +11556,7 @@
         <v>2.1578219076363636</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:6">
       <c r="B95">
         <v>376.21350000000001</v>
       </c>
@@ -11974,7 +11572,7 @@
         <v>1.9760037258181817</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:6">
       <c r="B96">
         <v>387.78930000000003</v>
       </c>
@@ -11990,7 +11588,7 @@
         <v>1.9193718331818181</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:6">
       <c r="B97">
         <v>399.36509999999998</v>
       </c>
@@ -12006,7 +11604,7 @@
         <v>1.6317414308181817</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:6">
       <c r="B98">
         <v>410.9409</v>
       </c>
@@ -12022,7 +11620,7 @@
         <v>1.4842004471818178</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:6">
       <c r="B99">
         <v>422.51670000000001</v>
       </c>
@@ -12038,7 +11636,7 @@
         <v>1.1548412817272724</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:6">
       <c r="B100">
         <v>434.09249999999997</v>
       </c>
@@ -12054,7 +11652,7 @@
         <v>1.1578219076363634</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:6">
       <c r="B101">
         <v>445.66829999999999</v>
       </c>
@@ -12070,7 +11668,7 @@
         <v>1.0475387480909089</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:6">
       <c r="B102">
         <v>457.2441</v>
       </c>
@@ -12086,7 +11684,7 @@
         <v>0.8061080477272724</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:6">
       <c r="B103">
         <v>468.81990000000002</v>
       </c>
@@ -12102,7 +11700,7 @@
         <v>0.92727049179999954</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:6">
       <c r="B104">
         <v>480.39569999999998</v>
       </c>
@@ -12118,7 +11716,7 @@
         <v>0.45841803279999971</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:6">
       <c r="B105">
         <v>491.97149999999999</v>
       </c>
@@ -12134,7 +11732,7 @@
         <v>0.46333606571428526</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:6">
       <c r="B106">
         <v>503.54730000000001</v>
       </c>
@@ -12150,7 +11748,7 @@
         <v>1.0534999999999997</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:6">
       <c r="B107">
         <v>515.12310000000002</v>
       </c>
@@ -12166,7 +11764,7 @@
         <v>0.19011202199999952</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:6">
       <c r="B108">
         <v>526.69889999999998</v>
       </c>
@@ -12182,7 +11780,7 @@
         <v>-1.7825655740000004</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:6">
       <c r="B109">
         <v>538.27470000000005</v>
       </c>
@@ -12191,7 +11789,7 @@
         <v>1.4591885246000003</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:6">
       <c r="B110">
         <v>549.85050000000001</v>
       </c>
@@ -12200,7 +11798,7 @@
         <v>1.4755819672999997</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:6">
       <c r="B111">
         <v>561.42629999999997</v>
       </c>
@@ -12209,7 +11807,7 @@
         <v>0.9132868851</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:6">
       <c r="B112">
         <v>573.00210000000004</v>
       </c>
@@ -12218,7 +11816,7 @@
         <v>0.71328688519999972</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:3">
       <c r="B113">
         <v>584.5779</v>
       </c>
@@ -12227,7 +11825,7 @@
         <v>0.62385154844444424</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:3">
       <c r="B114">
         <v>596.15369999999996</v>
       </c>
@@ -12236,7 +11834,7 @@
         <v>9.3796903444444413E-2</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3">
       <c r="B115">
         <v>607.72950000000003</v>
       </c>
@@ -12245,7 +11843,7 @@
         <v>0.35427049183333326</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:3">
       <c r="B116">
         <v>619.30529999999999</v>
       </c>
@@ -12254,7 +11852,7 @@
         <v>-0.31786065559999965</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:3">
       <c r="B117">
         <v>630.88109999999995</v>
       </c>
@@ -12263,7 +11861,7 @@
         <v>0.60017213133333325</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:3">
       <c r="B118">
         <v>642.45690000000002</v>
       </c>
@@ -12272,7 +11870,7 @@
         <v>1.4608278690000001</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:3">
       <c r="B119">
         <v>654.03269999999998</v>
       </c>
@@ -12288,16 +11886,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12317,7 +11915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="A2">
         <v>0.01</v>
       </c>
@@ -12359,7 +11957,7 @@
         <v>-0.10116329385058963</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="A3">
         <v>0.03</v>
       </c>
@@ -12395,7 +11993,7 @@
         <v>-8.1627927973395329E-8</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="A4">
         <v>0.05</v>
       </c>
@@ -12431,7 +12029,7 @@
         <v>-3.9194348106993758E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -12467,7 +12065,7 @@
         <v>-9.7948440630510822E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>0.09</v>
       </c>
@@ -12503,7 +12101,7 @@
         <v>-0.18368092372266054</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>0.11</v>
       </c>
@@ -12539,7 +12137,7 @@
         <v>-0.27092250270394258</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>0.13</v>
       </c>
@@ -12575,7 +12173,7 @@
         <v>-0.35657419176279082</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>0.15</v>
       </c>
@@ -12611,7 +12209,7 @@
         <v>-0.45533441556028115</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>0.17</v>
       </c>
@@ -12647,7 +12245,7 @@
         <v>-0.54845552195265801</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="A11">
         <v>0.19</v>
       </c>
@@ -12683,7 +12281,7 @@
         <v>-0.68710980719259596</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="A12">
         <v>0.21</v>
       </c>
@@ -12719,7 +12317,7 @@
         <v>-0.73976448721774124</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="A13">
         <v>0.23</v>
       </c>
@@ -12755,7 +12353,7 @@
         <v>-0.81961739024663405</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="A14">
         <v>0.25</v>
       </c>
@@ -12791,7 +12389,7 @@
         <v>-0.88631359943117238</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="A15">
         <v>0.27</v>
       </c>
@@ -12827,7 +12425,7 @@
         <v>-0.97937353145487882</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="A16">
         <v>0.28999999999999998</v>
       </c>
@@ -12863,7 +12461,7 @@
         <v>-1.1048690073651546</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26">
       <c r="A17">
         <v>0.31</v>
       </c>
@@ -12899,7 +12497,7 @@
         <v>-1.1321292167190911</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26">
       <c r="A18">
         <v>0.33</v>
       </c>
@@ -12935,7 +12533,7 @@
         <v>-1.2427316233637136</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26">
       <c r="A19">
         <v>0.35</v>
       </c>
@@ -12971,7 +12569,7 @@
         <v>-1.3512174842932521</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26">
       <c r="A20">
         <v>0.37</v>
       </c>
@@ -13007,7 +12605,7 @@
         <v>-1.4852261903937154</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26">
       <c r="A21">
         <v>0.39</v>
       </c>
@@ -13043,7 +12641,7 @@
         <v>-1.5462953253962397</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26">
       <c r="A22">
         <v>0.41</v>
       </c>
@@ -13079,7 +12677,7 @@
         <v>-1.6635239723844337</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26">
       <c r="A23">
         <v>0.43</v>
       </c>
@@ -13115,7 +12713,7 @@
         <v>-1.7040445172193488</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26">
       <c r="A24">
         <v>0.45</v>
       </c>
@@ -13151,7 +12749,7 @@
         <v>-1.8378370539399513</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26">
       <c r="A25">
         <v>0.47</v>
       </c>
@@ -13187,7 +12785,7 @@
         <v>-1.9181282392298764</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26">
       <c r="A26">
         <v>0.49</v>
       </c>
@@ -13223,7 +12821,7 @@
         <v>-2.0115162081154705</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26">
       <c r="A27">
         <v>0.51</v>
       </c>
@@ -13259,7 +12857,7 @@
         <v>-2.0875517575270175</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26">
       <c r="A28">
         <v>0.53</v>
       </c>
@@ -13295,7 +12893,7 @@
         <v>-2.1845627702442472</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26">
       <c r="A29">
         <v>0.55000000000000004</v>
       </c>
@@ -13331,7 +12929,7 @@
         <v>-2.3054402866369781</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26">
       <c r="A30">
         <v>0.56999999999999995</v>
       </c>
@@ -13367,7 +12965,7 @@
         <v>-2.4131910927709397</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26">
       <c r="A31">
         <v>0.59</v>
       </c>
@@ -13403,7 +13001,7 @@
         <v>-2.507050281502627</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26">
       <c r="A32">
         <v>0.61</v>
       </c>
@@ -13439,7 +13037,7 @@
         <v>-2.6570997592906007</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26">
       <c r="A33">
         <v>0.63</v>
       </c>
@@ -13475,7 +13073,7 @@
         <v>-2.6276877760206525</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26">
       <c r="A34">
         <v>0.65</v>
       </c>
@@ -13511,7 +13109,7 @@
         <v>-2.725130788099364</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26">
       <c r="A35">
         <v>0.67</v>
       </c>
@@ -13547,7 +13145,7 @@
         <v>-2.8483009542286606</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26">
       <c r="A36">
         <v>0.69</v>
       </c>
@@ -13583,7 +13181,7 @@
         <v>-2.8902048746569493</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26">
       <c r="A37">
         <v>0.71</v>
       </c>
@@ -13619,7 +13217,7 @@
         <v>-2.9306109968329621</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26">
       <c r="A38">
         <v>0.73</v>
       </c>
@@ -13655,7 +13253,7 @@
         <v>-3.0283429403143103</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26">
       <c r="A39">
         <v>0.75</v>
       </c>
@@ -13691,7 +13289,7 @@
         <v>-3.165691850921188</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26">
       <c r="A40">
         <v>0.77</v>
       </c>
@@ -13727,7 +13325,7 @@
         <v>-3.2254949763010354</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26">
       <c r="A41">
         <v>0.79</v>
       </c>
@@ -13763,7 +13361,7 @@
         <v>-3.2042858301916528</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26">
       <c r="A42">
         <v>0.81</v>
       </c>
@@ -13799,7 +13397,7 @@
         <v>-3.4633425140745633</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26">
       <c r="A43">
         <v>0.83</v>
       </c>
@@ -13835,7 +13433,7 @@
         <v>-3.2444293059711558</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26">
       <c r="A44">
         <v>0.85</v>
       </c>
@@ -13871,7 +13469,7 @@
         <v>-3.6800967825425319</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26">
       <c r="A45">
         <v>0.87</v>
       </c>
@@ -13907,7 +13505,7 @@
         <v>-3.7515422270468632</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26">
       <c r="A46">
         <v>0.89</v>
       </c>
@@ -13943,7 +13541,7 @@
         <v>-3.6347050650436028</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26">
       <c r="A47">
         <v>0.91</v>
       </c>
@@ -13979,7 +13577,7 @@
         <v>-3.8171262193767053</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26">
       <c r="A48">
         <v>0.93</v>
       </c>
@@ -14015,7 +13613,7 @@
         <v>-4.2021208202554181</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26">
       <c r="A49">
         <v>0.95</v>
       </c>
@@ -14051,7 +13649,7 @@
         <v>-4.0985715175153175</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26">
       <c r="A50">
         <v>0.97</v>
       </c>
@@ -14087,7 +13685,7 @@
         <v>-4.1671627934667042</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26">
       <c r="A51">
         <v>0.99</v>
       </c>
@@ -14130,16 +13728,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF58"/>
   <sheetViews>
-    <sheetView topLeftCell="I13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T47" sqref="T47"/>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14165,7 +13763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2">
         <v>5.7878999999999996</v>
       </c>
@@ -14213,7 +13811,7 @@
         <v>-5.4275661854795702E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32">
       <c r="A3">
         <v>17.363700000000001</v>
       </c>
@@ -14255,7 +13853,7 @@
         <v>-2.6958010933217258E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32">
       <c r="A4">
         <v>28.939499999999999</v>
       </c>
@@ -14297,7 +13895,7 @@
         <v>-8.9998391292580536E-7</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32">
       <c r="A5">
         <v>40.515300000000003</v>
       </c>
@@ -14339,7 +13937,7 @@
         <v>-5.8300762458537186E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32">
       <c r="A6">
         <v>52.091099999999997</v>
       </c>
@@ -14381,7 +13979,7 @@
         <v>-0.16622453632303943</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32">
       <c r="A7">
         <v>63.666899999999998</v>
       </c>
@@ -14423,7 +14021,7 @@
         <v>-0.23335874361252754</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32">
       <c r="A8">
         <v>75.242699999999999</v>
       </c>
@@ -14465,7 +14063,7 @@
         <v>-0.3484951308371928</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32">
       <c r="A9">
         <v>86.8185</v>
       </c>
@@ -14507,7 +14105,7 @@
         <v>-0.49093108718540912</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32">
       <c r="A10">
         <v>98.394300000000001</v>
       </c>
@@ -14549,7 +14147,7 @@
         <v>-0.58841999073990536</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32">
       <c r="A11">
         <v>109.9701</v>
       </c>
@@ -14591,7 +14189,7 @@
         <v>-0.67172483046976961</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32">
       <c r="A12">
         <v>121.5459</v>
       </c>
@@ -14633,7 +14231,7 @@
         <v>-0.77111195994315018</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32">
       <c r="A13">
         <v>133.1217</v>
       </c>
@@ -14675,7 +14273,7 @@
         <v>-0.87680741020400854</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32">
       <c r="A14">
         <v>144.69749999999999</v>
       </c>
@@ -14717,7 +14315,7 @@
         <v>-1.0257565067779086</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32">
       <c r="A15">
         <v>156.27330000000001</v>
       </c>
@@ -14759,7 +14357,7 @@
         <v>-1.0853555056608806</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32">
       <c r="A16">
         <v>167.84909999999999</v>
       </c>
@@ -14801,7 +14399,7 @@
         <v>-1.1990191558153509</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32">
       <c r="A17">
         <v>179.42490000000001</v>
       </c>
@@ -14843,7 +14441,7 @@
         <v>-1.3130339460640341</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32">
       <c r="A18">
         <v>191.00069999999999</v>
       </c>
@@ -14885,7 +14483,7 @@
         <v>-1.4456157560452971</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32">
       <c r="A19">
         <v>202.57650000000001</v>
       </c>
@@ -14927,7 +14525,7 @@
         <v>-1.5456436659855355</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32">
       <c r="A20">
         <v>214.1523</v>
       </c>
@@ -14969,7 +14567,7 @@
         <v>-1.6387441601464343</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32">
       <c r="A21">
         <v>225.72810000000001</v>
       </c>
@@ -15011,7 +14609,7 @@
         <v>-1.7460131794347671</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32">
       <c r="A22">
         <v>237.3039</v>
       </c>
@@ -15053,7 +14651,7 @@
         <v>-1.8509334735857486</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32">
       <c r="A23">
         <v>248.87970000000001</v>
       </c>
@@ -15095,7 +14693,7 @@
         <v>-1.9805500795583921</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32">
       <c r="A24">
         <v>260.45549999999997</v>
       </c>
@@ -15137,7 +14735,7 @@
         <v>-2.0991984882212336</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32">
       <c r="A25">
         <v>272.03129999999999</v>
       </c>
@@ -15179,7 +14777,7 @@
         <v>-2.1652127993609214</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32">
       <c r="A26">
         <v>283.6071</v>
       </c>
@@ -15221,7 +14819,7 @@
         <v>-2.3630954507488546</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32">
       <c r="A27">
         <v>295.18290000000002</v>
       </c>
@@ -15263,7 +14861,7 @@
         <v>-2.4352053263595757</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32">
       <c r="A28">
         <v>306.75869999999998</v>
       </c>
@@ -15305,7 +14903,7 @@
         <v>-2.4761335256136077</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32">
       <c r="A29">
         <v>318.33449999999999</v>
       </c>
@@ -15347,7 +14945,7 @@
         <v>-2.7192877039014212</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32">
       <c r="A30">
         <v>329.91030000000001</v>
       </c>
@@ -15389,7 +14987,7 @@
         <v>-2.7049615889774263</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32">
       <c r="A31">
         <v>341.48610000000002</v>
       </c>
@@ -15431,7 +15029,7 @@
         <v>-2.7389027856118977</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32">
       <c r="A32">
         <v>353.06189999999998</v>
       </c>
@@ -15473,7 +15071,7 @@
         <v>-2.8738178240300516</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32">
       <c r="A33">
         <v>364.6377</v>
       </c>
@@ -15515,7 +15113,7 @@
         <v>-2.9380153403545051</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32">
       <c r="A34">
         <v>376.21350000000001</v>
       </c>
@@ -15557,7 +15155,7 @@
         <v>-3.026038192343675</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32">
       <c r="A35">
         <v>387.78930000000003</v>
       </c>
@@ -15599,7 +15197,7 @@
         <v>-3.0551167149130554</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32">
       <c r="A36">
         <v>399.36509999999998</v>
       </c>
@@ -15641,7 +15239,7 @@
         <v>-3.2174668702123057</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32">
       <c r="A37">
         <v>410.9409</v>
       </c>
@@ -15683,7 +15281,7 @@
         <v>-3.3122384693543889</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32">
       <c r="A38">
         <v>422.51670000000001</v>
       </c>
@@ -15725,7 +15323,7 @@
         <v>-3.5631517610900554</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32">
       <c r="A39">
         <v>434.09249999999997</v>
       </c>
@@ -15767,7 +15365,7 @@
         <v>-3.5605741029397877</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32">
       <c r="A40">
         <v>445.66829999999999</v>
       </c>
@@ -15809,7 +15407,7 @@
         <v>-3.6606713140555116</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32">
       <c r="A41">
         <v>457.2441</v>
       </c>
@@ -15851,7 +15449,7 @@
         <v>-3.9226521684108686</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32">
       <c r="A42">
         <v>468.81990000000002</v>
       </c>
@@ -15893,7 +15491,7 @@
         <v>-3.7826246405180637</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32">
       <c r="A43">
         <v>480.39569999999998</v>
       </c>
@@ -15935,7 +15533,7 @@
         <v>-4.4870884529895045</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32">
       <c r="A44">
         <v>491.97149999999999</v>
       </c>
@@ -15977,7 +15575,7 @@
         <v>-4.4764173215209127</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32">
       <c r="A45">
         <v>503.54730000000001</v>
       </c>
@@ -16019,7 +15617,7 @@
         <v>-3.6549967229409841</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32">
       <c r="A46">
         <v>515.12310000000002</v>
       </c>
@@ -16061,7 +15659,7 @@
         <v>-5.3672564682906465</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32">
       <c r="A47">
         <v>526.69889999999998</v>
       </c>
@@ -16103,7 +15701,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32">
       <c r="A48">
         <v>538.27470000000005</v>
       </c>
@@ -16125,7 +15723,7 @@
         <v>-2.8888860608980234</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>549.85050000000001</v>
       </c>
@@ -16147,7 +15745,7 @@
         <v>-2.8777140709554057</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>561.42629999999997</v>
       </c>
@@ -16169,7 +15767,7 @@
         <v>-3.3574717623241361</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>573.00210000000004</v>
       </c>
@@ -16191,7 +15789,7 @@
         <v>-3.6046381129928609</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>584.5779</v>
       </c>
@@ -16213,7 +15811,7 @@
         <v>-3.7386093790829342</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>596.15369999999996</v>
       </c>
@@ -16235,7 +15833,7 @@
         <v>-5.6333899728671142</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>607.72950000000003</v>
       </c>
@@ -16257,7 +15855,7 @@
         <v>-4.3044610934338579</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>619.30529999999999</v>
       </c>
@@ -16279,7 +15877,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>630.88109999999995</v>
       </c>
@@ -16301,7 +15899,7 @@
         <v>-3.7773053163871091</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>642.45690000000002</v>
       </c>
@@ -16323,7 +15921,7 @@
         <v>-2.8877632284537764</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>654.03269999999998</v>
       </c>
